--- a/Code/Results/Cases/Case_8_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.38860098438704</v>
+        <v>3.409060344952593</v>
       </c>
       <c r="C2">
-        <v>1.473646946666179</v>
+        <v>1.675952915988432</v>
       </c>
       <c r="D2">
-        <v>0.02367583929598283</v>
+        <v>0.06125837123015287</v>
       </c>
       <c r="E2">
-        <v>0.1187759345569681</v>
+        <v>0.1425166468354</v>
       </c>
       <c r="F2">
-        <v>3.091689705357339</v>
+        <v>2.29383715184818</v>
       </c>
       <c r="G2">
-        <v>0.0008172412550982134</v>
+        <v>0.00770729352027133</v>
       </c>
       <c r="H2">
-        <v>0.0004875395152073025</v>
+        <v>7.405209673905233E-06</v>
       </c>
       <c r="I2">
-        <v>0.001494350152372537</v>
+        <v>0.0005498245498500864</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.323210830356601</v>
+        <v>0.817546095217196</v>
       </c>
       <c r="L2">
-        <v>0.263205519948059</v>
+        <v>0.3629094971147637</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2579967472513189</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2577640401796089</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.948666530735863</v>
+        <v>2.968528929851402</v>
       </c>
       <c r="C3">
-        <v>1.280086703664324</v>
+        <v>1.45205000804782</v>
       </c>
       <c r="D3">
-        <v>0.02058619979072773</v>
+        <v>0.05368316254381966</v>
       </c>
       <c r="E3">
-        <v>0.1032928264192385</v>
+        <v>0.1254383386228852</v>
       </c>
       <c r="F3">
-        <v>2.796955002975182</v>
+        <v>2.095279073006765</v>
       </c>
       <c r="G3">
-        <v>0.0008233706669291417</v>
+        <v>0.01268000052165563</v>
       </c>
       <c r="H3">
-        <v>0.002126109831152245</v>
+        <v>0.0004883540129392294</v>
       </c>
       <c r="I3">
-        <v>0.003584471198010863</v>
+        <v>0.0009513013320563424</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.221007142711429</v>
+        <v>0.7725949922294646</v>
       </c>
       <c r="L3">
-        <v>0.2289789135550819</v>
+        <v>0.3551080410100411</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2327999986230012</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2271826339844694</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.679414984022515</v>
+        <v>2.698011614118741</v>
       </c>
       <c r="C4">
-        <v>1.16266955433349</v>
+        <v>1.315638193308303</v>
       </c>
       <c r="D4">
-        <v>0.01876836220768752</v>
+        <v>0.04914547700511207</v>
       </c>
       <c r="E4">
-        <v>0.09391132691988702</v>
+        <v>0.1150270373698739</v>
       </c>
       <c r="F4">
-        <v>2.616657131109179</v>
+        <v>1.972889926660486</v>
       </c>
       <c r="G4">
-        <v>0.000827246007474393</v>
+        <v>0.01645717529443158</v>
       </c>
       <c r="H4">
-        <v>0.003757307486954797</v>
+        <v>0.001182291103925426</v>
       </c>
       <c r="I4">
-        <v>0.005512245603555233</v>
+        <v>0.001552146071096328</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.158175317520232</v>
+        <v>0.7445192679304142</v>
       </c>
       <c r="L4">
-        <v>0.20812607446058</v>
+        <v>0.3498058734474583</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2180352933859453</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2084336612560378</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.569842974117421</v>
+        <v>2.58771447207431</v>
       </c>
       <c r="C5">
-        <v>1.116227452066823</v>
+        <v>1.261232562085468</v>
       </c>
       <c r="D5">
-        <v>0.01819382722139551</v>
+        <v>0.04751237475669257</v>
       </c>
       <c r="E5">
-        <v>0.09020261421387232</v>
+        <v>0.1108783424886646</v>
       </c>
       <c r="F5">
-        <v>2.538549385770963</v>
+        <v>1.919509121748021</v>
       </c>
       <c r="G5">
-        <v>0.0008288647628941875</v>
+        <v>0.01817901665581001</v>
       </c>
       <c r="H5">
-        <v>0.004574580548499796</v>
+        <v>0.001561564950102179</v>
       </c>
       <c r="I5">
-        <v>0.006532626910464856</v>
+        <v>0.00196717863178808</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.129459183423542</v>
+        <v>0.7310080301476063</v>
       </c>
       <c r="L5">
-        <v>0.1995624029757508</v>
+        <v>0.3466995418923844</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2115495387968238</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.200717337892435</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.551637258146229</v>
+        <v>2.569368058660984</v>
       </c>
       <c r="C6">
-        <v>1.109868552809644</v>
+        <v>1.253370904837084</v>
       </c>
       <c r="D6">
-        <v>0.0182815482084564</v>
+        <v>0.04747463915686012</v>
       </c>
       <c r="E6">
-        <v>0.0896954669360106</v>
+        <v>0.1102859524097113</v>
       </c>
       <c r="F6">
-        <v>2.519786186976546</v>
+        <v>1.906532273553466</v>
       </c>
       <c r="G6">
-        <v>0.0008291482445967539</v>
+        <v>0.01848824215992106</v>
       </c>
       <c r="H6">
-        <v>0.004725264693974829</v>
+        <v>0.001632680198905945</v>
       </c>
       <c r="I6">
-        <v>0.006820508136929249</v>
+        <v>0.002156056096500159</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.120938359431619</v>
+        <v>0.7263863673205577</v>
       </c>
       <c r="L6">
-        <v>0.1980226090913177</v>
+        <v>0.3451813293033155</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2097003293607216</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1993407090539776</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.677872687089518</v>
+        <v>2.696296532131612</v>
       </c>
       <c r="C7">
-        <v>1.165694269548624</v>
+        <v>1.310590909743894</v>
       </c>
       <c r="D7">
-        <v>0.01925779578151321</v>
+        <v>0.0509345586348573</v>
       </c>
       <c r="E7">
-        <v>0.09415472475530962</v>
+        <v>0.1157008563797852</v>
       </c>
       <c r="F7">
-        <v>2.599726021304463</v>
+        <v>1.940420423222335</v>
       </c>
       <c r="G7">
-        <v>0.0008273025992800039</v>
+        <v>0.01694411291732378</v>
       </c>
       <c r="H7">
-        <v>0.00378288490700518</v>
+        <v>0.001207729138443137</v>
       </c>
       <c r="I7">
-        <v>0.005804531613677888</v>
+        <v>0.00186738731125935</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.147518880814779</v>
+        <v>0.7282249052814578</v>
       </c>
       <c r="L7">
-        <v>0.2076817688409278</v>
+        <v>0.3430817696837494</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2125456512498012</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2075606790158062</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.236569839128833</v>
+        <v>3.256433398445154</v>
       </c>
       <c r="C8">
-        <v>1.41145010134835</v>
+        <v>1.577482468228709</v>
       </c>
       <c r="D8">
-        <v>0.02325695844164954</v>
+        <v>0.06350838991312457</v>
       </c>
       <c r="E8">
-        <v>0.1138007795532552</v>
+        <v>0.1385394458244882</v>
       </c>
       <c r="F8">
-        <v>2.968728069165081</v>
+        <v>2.142696218726002</v>
       </c>
       <c r="G8">
-        <v>0.0008193763326248741</v>
+        <v>0.01127379896984237</v>
       </c>
       <c r="H8">
-        <v>0.0009264265745376754</v>
+        <v>0.0001023734425324996</v>
       </c>
       <c r="I8">
-        <v>0.00239212511634701</v>
+        <v>0.0009727159196089019</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.274294086073851</v>
+        <v>0.7621120159996764</v>
       </c>
       <c r="L8">
-        <v>0.2509186355580653</v>
+        <v>0.3444298903779384</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.235015612402961</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2451484056982025</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.341891397263112</v>
+        <v>4.356683581479217</v>
       </c>
       <c r="C9">
-        <v>1.900223667473199</v>
+        <v>2.13198869305586</v>
       </c>
       <c r="D9">
-        <v>0.03090302727747485</v>
+        <v>0.08360862121018187</v>
       </c>
       <c r="E9">
-        <v>0.1530130777878469</v>
+        <v>0.181872152514913</v>
       </c>
       <c r="F9">
-        <v>3.729276679449157</v>
+        <v>2.630703238688255</v>
       </c>
       <c r="G9">
-        <v>0.0008046225249987924</v>
+        <v>0.003278346298539958</v>
       </c>
       <c r="H9">
-        <v>0.0007533177468799224</v>
+        <v>0.001305146041035821</v>
       </c>
       <c r="I9">
-        <v>0.0009554800133741992</v>
+        <v>0.001797788862044847</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.54186949235168</v>
+        <v>0.871052873965418</v>
       </c>
       <c r="L9">
-        <v>0.3380498728553789</v>
+        <v>0.3619239288453784</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3005181594091724</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3216157068520431</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.162427884029114</v>
+        <v>5.1653488284432</v>
       </c>
       <c r="C10">
-        <v>2.25779634769907</v>
+        <v>2.483114232632602</v>
       </c>
       <c r="D10">
-        <v>0.03679701790167655</v>
+        <v>0.1052750941337592</v>
       </c>
       <c r="E10">
-        <v>0.1758086501708647</v>
+        <v>0.2091516383100256</v>
       </c>
       <c r="F10">
-        <v>4.199195373439352</v>
+        <v>2.806567190911096</v>
       </c>
       <c r="G10">
-        <v>0.0007945262472678852</v>
+        <v>0.009058243781325359</v>
       </c>
       <c r="H10">
-        <v>0.004561597177078713</v>
+        <v>0.00448108365576827</v>
       </c>
       <c r="I10">
-        <v>0.004140193150830029</v>
+        <v>0.00458072890634309</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.692268899831276</v>
+        <v>0.8713222400934058</v>
       </c>
       <c r="L10">
-        <v>0.385502148875446</v>
+        <v>0.3445483394999656</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.321663774950494</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3581794253204293</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.526499640941438</v>
+        <v>5.523562356735511</v>
       </c>
       <c r="C11">
-        <v>2.300023040529879</v>
+        <v>2.401675623978917</v>
       </c>
       <c r="D11">
-        <v>0.03604683572059031</v>
+        <v>0.1136121738245066</v>
       </c>
       <c r="E11">
-        <v>0.1296401642791167</v>
+        <v>0.1605951029696406</v>
       </c>
       <c r="F11">
-        <v>3.634633925798227</v>
+        <v>2.204472174461813</v>
       </c>
       <c r="G11">
-        <v>0.0007922685736991966</v>
+        <v>0.04283555752372337</v>
       </c>
       <c r="H11">
-        <v>0.02330339459585673</v>
+        <v>0.02278882109478175</v>
       </c>
       <c r="I11">
-        <v>0.005759733991951954</v>
+        <v>0.005754599545210404</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.39281403469235</v>
+        <v>0.613878129972143</v>
       </c>
       <c r="L11">
-        <v>0.2661624815989541</v>
+        <v>0.2470042160911277</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2276492919997821</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2395941040265441</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.659961547499449</v>
+        <v>5.656221429051925</v>
       </c>
       <c r="C12">
-        <v>2.252090031740295</v>
+        <v>2.282987659222272</v>
       </c>
       <c r="D12">
-        <v>0.0334704146932836</v>
+        <v>0.1095803451531765</v>
       </c>
       <c r="E12">
-        <v>0.09318538088884409</v>
+        <v>0.1190951301843199</v>
       </c>
       <c r="F12">
-        <v>3.119465448610299</v>
+        <v>1.790345440506925</v>
       </c>
       <c r="G12">
-        <v>0.0007922552005220782</v>
+        <v>0.0672046080327533</v>
       </c>
       <c r="H12">
-        <v>0.06143511882780217</v>
+        <v>0.06091952656031907</v>
       </c>
       <c r="I12">
-        <v>0.005783831398024297</v>
+        <v>0.005703521175554727</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.14875440497795</v>
+        <v>0.4632160042014419</v>
       </c>
       <c r="L12">
-        <v>0.1784629584881472</v>
+        <v>0.1930605523758331</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1690481053831121</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1570219402688977</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.622070745790438</v>
+        <v>5.621841855650587</v>
       </c>
       <c r="C13">
-        <v>2.138331371472816</v>
+        <v>2.151031028884347</v>
       </c>
       <c r="D13">
-        <v>0.03004461059555297</v>
+        <v>0.0940979373562385</v>
       </c>
       <c r="E13">
-        <v>0.06279883718783452</v>
+        <v>0.08150048067955495</v>
       </c>
       <c r="F13">
-        <v>2.590502871933111</v>
+        <v>1.493292121271566</v>
       </c>
       <c r="G13">
-        <v>0.0007940147533231346</v>
+        <v>0.06139954080541443</v>
       </c>
       <c r="H13">
-        <v>0.1161046951736608</v>
+        <v>0.1158926386143548</v>
       </c>
       <c r="I13">
-        <v>0.004872142493462128</v>
+        <v>0.005124156011554248</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9179184144089092</v>
+        <v>0.3738758251706855</v>
       </c>
       <c r="L13">
-        <v>0.1101728849473176</v>
+        <v>0.1629841199571551</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1316398796608489</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09672177257697356</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.518304752539734</v>
+        <v>5.52205602970804</v>
       </c>
       <c r="C14">
-        <v>2.030973198135484</v>
+        <v>2.052028147761973</v>
       </c>
       <c r="D14">
-        <v>0.02739188729455222</v>
+        <v>0.07947831908833791</v>
       </c>
       <c r="E14">
-        <v>0.04558627131564208</v>
+        <v>0.05909636310352795</v>
       </c>
       <c r="F14">
-        <v>2.219093780906292</v>
+        <v>1.326275858684795</v>
       </c>
       <c r="G14">
-        <v>0.0007960359255226874</v>
+        <v>0.04485935124183626</v>
       </c>
       <c r="H14">
-        <v>0.1645868091754608</v>
+        <v>0.1646419047853698</v>
       </c>
       <c r="I14">
-        <v>0.004010877941391655</v>
+        <v>0.004603817079286365</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.764844467127773</v>
+        <v>0.3318406206292863</v>
       </c>
       <c r="L14">
-        <v>0.07464809785295401</v>
+        <v>0.1496688796136532</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.112688898209516</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06704466681082621</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.456563949384986</v>
+        <v>5.462015692351372</v>
       </c>
       <c r="C15">
-        <v>1.992715289952457</v>
+        <v>2.024347582503196</v>
       </c>
       <c r="D15">
-        <v>0.02670452320888117</v>
+        <v>0.07444317755140162</v>
       </c>
       <c r="E15">
-        <v>0.04176740236574794</v>
+        <v>0.05390863144322466</v>
       </c>
       <c r="F15">
-        <v>2.11777534066195</v>
+        <v>1.295997821229108</v>
       </c>
       <c r="G15">
-        <v>0.0007969391916421515</v>
+        <v>0.03650304388806092</v>
       </c>
       <c r="H15">
-        <v>0.1767687608290913</v>
+        <v>0.1769193887530349</v>
       </c>
       <c r="I15">
-        <v>0.003758606369641981</v>
+        <v>0.00449844347824957</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7251637562756059</v>
+        <v>0.3270483429490518</v>
       </c>
       <c r="L15">
-        <v>0.06729502210195548</v>
+        <v>0.1485802045138129</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1098106774250134</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06135853202158259</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.109829643105058</v>
+        <v>5.121837578127725</v>
       </c>
       <c r="C16">
-        <v>1.866936146145918</v>
+        <v>1.970461609235826</v>
       </c>
       <c r="D16">
-        <v>0.02500419159257916</v>
+        <v>0.05985997281526068</v>
       </c>
       <c r="E16">
-        <v>0.03949461524005748</v>
+        <v>0.05001459814223708</v>
       </c>
       <c r="F16">
-        <v>2.030989132046841</v>
+        <v>1.396073123799184</v>
       </c>
       <c r="G16">
-        <v>0.0008008832978020353</v>
+        <v>0.008743885355483982</v>
       </c>
       <c r="H16">
-        <v>0.1628159002929408</v>
+        <v>0.1632105347541568</v>
       </c>
       <c r="I16">
-        <v>0.002575306442944125</v>
+        <v>0.003671131793141491</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7088971479813964</v>
+        <v>0.3819389854294357</v>
       </c>
       <c r="L16">
-        <v>0.06401224045861298</v>
+        <v>0.1709657381660143</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1268485369382013</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06132435801113445</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.899700727134473</v>
+        <v>4.914316917556391</v>
       </c>
       <c r="C17">
-        <v>1.827399128037428</v>
+        <v>1.971420057955868</v>
       </c>
       <c r="D17">
-        <v>0.02516616758726187</v>
+        <v>0.05733670334964103</v>
       </c>
       <c r="E17">
-        <v>0.04600515476445644</v>
+        <v>0.05753500368956566</v>
       </c>
       <c r="F17">
-        <v>2.154853121106669</v>
+        <v>1.550831973435166</v>
       </c>
       <c r="G17">
-        <v>0.0008028554838586838</v>
+        <v>0.003074923088654202</v>
       </c>
       <c r="H17">
-        <v>0.1245767629298911</v>
+        <v>0.1249928378241663</v>
       </c>
       <c r="I17">
-        <v>0.002189709055302025</v>
+        <v>0.003337650526992419</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7738936102690346</v>
+        <v>0.4459595789060273</v>
       </c>
       <c r="L17">
-        <v>0.0777283515280125</v>
+        <v>0.1961541932206998</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1488057513469272</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07519953177030558</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.782031662891256</v>
+        <v>4.79713480870538</v>
       </c>
       <c r="C18">
-        <v>1.853662751005629</v>
+        <v>2.033634971375307</v>
       </c>
       <c r="D18">
-        <v>0.02661765028859975</v>
+        <v>0.06159254691872462</v>
       </c>
       <c r="E18">
-        <v>0.0645546510971009</v>
+        <v>0.07916216344720439</v>
       </c>
       <c r="F18">
-        <v>2.503237382753397</v>
+        <v>1.821543755869584</v>
       </c>
       <c r="G18">
-        <v>0.0008032317849550943</v>
+        <v>0.001735939999107483</v>
       </c>
       <c r="H18">
-        <v>0.07172753950266753</v>
+        <v>0.07216281887745879</v>
       </c>
       <c r="I18">
-        <v>0.001904335110868516</v>
+        <v>0.00301446605745781</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.934634297258647</v>
+        <v>0.5466541571844488</v>
       </c>
       <c r="L18">
-        <v>0.1188693575753632</v>
+        <v>0.2341675508553607</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1859847399644678</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1140793240269034</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.746787467694844</v>
+        <v>4.760843512640122</v>
       </c>
       <c r="C19">
-        <v>1.938218247671102</v>
+        <v>2.154291697989606</v>
       </c>
       <c r="D19">
-        <v>0.02991244039843366</v>
+        <v>0.07165572576603552</v>
       </c>
       <c r="E19">
-        <v>0.097802134607619</v>
+        <v>0.1173153688770405</v>
       </c>
       <c r="F19">
-        <v>3.016298447908639</v>
+        <v>2.181960462562913</v>
       </c>
       <c r="G19">
-        <v>0.0008022124427252715</v>
+        <v>0.001228246178476056</v>
       </c>
       <c r="H19">
-        <v>0.0269096224021439</v>
+        <v>0.02740379177903662</v>
       </c>
       <c r="I19">
-        <v>0.002209790239808385</v>
+        <v>0.003357945461535117</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.167039574561585</v>
+        <v>0.6759916336192049</v>
       </c>
       <c r="L19">
-        <v>0.19597689411993</v>
+        <v>0.281860110098421</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.235396495819991</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1866336401227002</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.945541648381663</v>
+        <v>4.953283430551494</v>
       </c>
       <c r="C20">
-        <v>2.174095653124539</v>
+        <v>2.428130282676477</v>
       </c>
       <c r="D20">
-        <v>0.0368055133167644</v>
+        <v>0.09689977310415543</v>
       </c>
       <c r="E20">
-        <v>0.1703789001367895</v>
+        <v>0.2006989622864452</v>
       </c>
       <c r="F20">
-        <v>4.021129085934064</v>
+        <v>2.796385811753908</v>
       </c>
       <c r="G20">
-        <v>0.0007972566850391856</v>
+        <v>0.002528378877796555</v>
       </c>
       <c r="H20">
-        <v>0.003212004777973121</v>
+        <v>0.00351373512275055</v>
       </c>
       <c r="I20">
-        <v>0.003678687989834728</v>
+        <v>0.004628293538059047</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.618561409880897</v>
+        <v>0.8840666489438931</v>
       </c>
       <c r="L20">
-        <v>0.3710743694811498</v>
+        <v>0.3536428978055426</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3210394923347408</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3489009256235676</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.581575075583999</v>
+        <v>5.571385003143916</v>
       </c>
       <c r="C21">
-        <v>2.473408516301902</v>
+        <v>2.578056265650787</v>
       </c>
       <c r="D21">
-        <v>0.04202228401341301</v>
+        <v>0.1439651922364789</v>
       </c>
       <c r="E21">
-        <v>0.1993342699160365</v>
+        <v>0.244242109117593</v>
       </c>
       <c r="F21">
-        <v>4.5359180509287</v>
+        <v>2.659070462871142</v>
       </c>
       <c r="G21">
-        <v>0.0007891966141776139</v>
+        <v>0.06399162249890367</v>
       </c>
       <c r="H21">
-        <v>0.007770949345753564</v>
+        <v>0.006376538664211062</v>
       </c>
       <c r="I21">
-        <v>0.007711823190190259</v>
+        <v>0.00695332631465817</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.807878661679197</v>
+        <v>0.7603434532761639</v>
       </c>
       <c r="L21">
-        <v>0.4364292004021166</v>
+        <v>0.2974043916586879</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2878921077354093</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3934423763932102</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.000175911741678</v>
+        <v>5.975745447351471</v>
       </c>
       <c r="C22">
-        <v>2.65988690831233</v>
+        <v>2.651113044323097</v>
       </c>
       <c r="D22">
-        <v>0.04460912042390675</v>
+        <v>0.1784426799147809</v>
       </c>
       <c r="E22">
-        <v>0.2144875934583936</v>
+        <v>0.2697189379412279</v>
       </c>
       <c r="F22">
-        <v>4.851268913801164</v>
+        <v>2.534485515280593</v>
       </c>
       <c r="G22">
-        <v>0.0007840904846624159</v>
+        <v>0.153611731802421</v>
       </c>
       <c r="H22">
-        <v>0.01172486374903886</v>
+        <v>0.008646893195311561</v>
       </c>
       <c r="I22">
-        <v>0.01110776567712524</v>
+        <v>0.008463092597522426</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.92457291418097</v>
+        <v>0.673305085250874</v>
       </c>
       <c r="L22">
-        <v>0.4709933721305504</v>
+        <v>0.2602706540888988</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2624291257402334</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4136169252333843</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.776694300134352</v>
+        <v>5.760653255523778</v>
       </c>
       <c r="C23">
-        <v>2.555612672082248</v>
+        <v>2.628960713228366</v>
       </c>
       <c r="D23">
-        <v>0.04258981741471501</v>
+        <v>0.1544814957243688</v>
       </c>
       <c r="E23">
-        <v>0.2060071271850248</v>
+        <v>0.2542815378773184</v>
       </c>
       <c r="F23">
-        <v>4.701888781362413</v>
+        <v>2.661055802369873</v>
       </c>
       <c r="G23">
-        <v>0.0007867748196995433</v>
+        <v>0.08748105555020658</v>
       </c>
       <c r="H23">
-        <v>0.009543398753522905</v>
+        <v>0.007473760915899519</v>
       </c>
       <c r="I23">
-        <v>0.008946125987011833</v>
+        <v>0.007365803503500246</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.874589514964683</v>
+        <v>0.7455828276957561</v>
       </c>
       <c r="L23">
-        <v>0.4529263017918197</v>
+        <v>0.2887969438280038</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2866808373704899</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4045362316672367</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.936513666113854</v>
+        <v>4.944086743388254</v>
       </c>
       <c r="C24">
-        <v>2.174084333309452</v>
+        <v>2.43389359258515</v>
       </c>
       <c r="D24">
-        <v>0.03619355987339645</v>
+        <v>0.09660312128684012</v>
       </c>
       <c r="E24">
-        <v>0.1750967353806629</v>
+        <v>0.2060789559772616</v>
       </c>
       <c r="F24">
-        <v>4.11310279458354</v>
+        <v>2.86212241841838</v>
       </c>
       <c r="G24">
-        <v>0.0007971207693453747</v>
+        <v>0.002336782140002214</v>
       </c>
       <c r="H24">
-        <v>0.003242833157274916</v>
+        <v>0.003533135645711116</v>
       </c>
       <c r="I24">
-        <v>0.003270673996626172</v>
+        <v>0.004114909736603778</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.667962947316141</v>
+        <v>0.9131586754975203</v>
       </c>
       <c r="L24">
-        <v>0.3849519478171146</v>
+        <v>0.3643469800586274</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3321620389268745</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3620070814840233</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.041195920972996</v>
+        <v>4.058796657106313</v>
       </c>
       <c r="C25">
-        <v>1.772957561296494</v>
+        <v>1.997624408743661</v>
       </c>
       <c r="D25">
-        <v>0.02967605203804879</v>
+        <v>0.07749400128727046</v>
       </c>
       <c r="E25">
-        <v>0.142784806754122</v>
+        <v>0.1698490775053827</v>
       </c>
       <c r="F25">
-        <v>3.493065040902735</v>
+        <v>2.507988610184356</v>
       </c>
       <c r="G25">
-        <v>0.0008085864445817927</v>
+        <v>0.003680406684992477</v>
       </c>
       <c r="H25">
-        <v>0.0001415556485842018</v>
+        <v>0.0005791013094076369</v>
       </c>
       <c r="I25">
-        <v>0.001071469183898444</v>
+        <v>0.001697058297049026</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.450484322174503</v>
+        <v>0.8440481354606035</v>
       </c>
       <c r="L25">
-        <v>0.3135949844407264</v>
+        <v>0.3584396048275806</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2829258794262373</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3011128846675462</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
